--- a/4027ccom/db_project/rodante.xlsx
+++ b/4027ccom/db_project/rodante.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="505">
   <si>
     <t>+</t>
   </si>
@@ -1607,6 +1607,9 @@
   </si>
   <si>
     <t>Alejandro Casona, Lope de Rueda</t>
+  </si>
+  <si>
+    <t>El Roble Escénico</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1731,6 +1734,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2038,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="F66" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4253,13 +4259,13 @@
         <v>221</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>222</v>
+        <v>504</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>222</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>222</v>
+        <v>504</v>
       </c>
       <c r="J74" s="6" t="s">
         <v>339</v>
@@ -5667,7 +5673,7 @@
       <c r="I118" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="J118" s="9" t="s">
+      <c r="J118" s="13" t="s">
         <v>382</v>
       </c>
     </row>
